--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neelanpather/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neelanpather/dev/excel_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94B7859A-146E-DF47-AC42-4E51B790782F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C2D70D-6642-0643-B029-C5C269B2B7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="820" windowWidth="28100" windowHeight="17440" xr2:uid="{BFBFD19B-F98E-7645-B509-53A91D95670B}"/>
   </bookViews>
@@ -33,6 +33,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>TACOS</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,7 +394,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neelanpather/dev/excel_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C2D70D-6642-0643-B029-C5C269B2B7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE35AFA8-9F93-4E4B-BAD0-81293AA87FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="820" windowWidth="28100" windowHeight="17440" xr2:uid="{BFBFD19B-F98E-7645-B509-53A91D95670B}"/>
   </bookViews>
@@ -389,9 +389,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84673E3-32D0-8A42-B54C-8B39B27766B8}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
